--- a/Requisitos e Casos de Uso.xlsx.xlsx
+++ b/Requisitos e Casos de Uso.xlsx.xlsx
@@ -30,6 +30,9 @@
     <t>CASOS DE USO</t>
   </si>
   <si>
+    <t>Ator</t>
+  </si>
+  <si>
     <t>RE01</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
     <t>Cadastrar</t>
   </si>
   <si>
+    <t>Paciente</t>
+  </si>
+  <si>
     <t>RE02</t>
   </si>
   <si>
@@ -54,10 +60,13 @@
     <t>Logar Paciente</t>
   </si>
   <si>
+    <t>Paciente</t>
+  </si>
+  <si>
     <t>RE03</t>
   </si>
   <si>
-    <t>Fornecer opção para recuperar a senha </t>
+    <t>Fornecer opção para recuperar a senha</t>
   </si>
   <si>
     <t>UC03</t>
@@ -66,6 +75,9 @@
     <t>Recuperar Seha</t>
   </si>
   <si>
+    <t>Paciente</t>
+  </si>
+  <si>
     <t>RE04</t>
   </si>
   <si>
@@ -78,6 +90,9 @@
     <t>Iniciar Consulta</t>
   </si>
   <si>
+    <t>Paciente</t>
+  </si>
+  <si>
     <t>RE05</t>
   </si>
   <si>
@@ -87,7 +102,10 @@
     <t>UC05</t>
   </si>
   <si>
-    <t>Enviar Consulta</t>
+    <t>Enviar Consulta ao medico pessoal</t>
+  </si>
+  <si>
+    <t>Paciente</t>
   </si>
   <si>
     <t>RE06</t>
@@ -102,56 +120,104 @@
     <t>Consulta de Emergência</t>
   </si>
   <si>
+    <t>Paciente</t>
+  </si>
+  <si>
     <t>RE07</t>
   </si>
   <si>
+    <t>Disponibilizar opção para que o médico possa exibir as consultas em aberto e direcionadas a ele como médico pessoal. Estas consultas não são de emergência e já contem as informações dos pacientes que já enviaram os sintomas e esperam por uma receita ou diagnóstico de volta.</t>
+  </si>
+  <si>
+    <t>UC07</t>
+  </si>
+  <si>
+    <t>Verificar Consultas</t>
+  </si>
+  <si>
+    <t>Médico</t>
+  </si>
+  <si>
     <t>RE08</t>
   </si>
   <si>
+    <t>Botão para que o médico possa abrir as consultas sinalizadas omo Urgentes, essas</t>
+  </si>
+  <si>
+    <t>UC08</t>
+  </si>
+  <si>
+    <t>Verificar Emergências</t>
+  </si>
+  <si>
+    <t>Médico</t>
+  </si>
+  <si>
     <t>RE09</t>
   </si>
   <si>
+    <t>Exibir um botão que permita ao médico escolher a consulta selecionada e seguir para as opções disponíveis a fazer com essa consulta, Ligação, Chat ou Enviar a Receita.</t>
+  </si>
+  <si>
+    <t>UC09</t>
+  </si>
+  <si>
+    <t>Atender Paciente</t>
+  </si>
+  <si>
+    <t>Médico</t>
+  </si>
+  <si>
     <t>RE10</t>
   </si>
   <si>
+    <t>Exibir a opção para que o médico Envie a receita ao paciente, com recomendação autorizadas de remédios, cuidados, ou outras informações. Esta opção finaliza a consulta.</t>
+  </si>
+  <si>
+    <t>UC10</t>
+  </si>
+  <si>
+    <t>Enviar Receita</t>
+  </si>
+  <si>
+    <t>Médico</t>
+  </si>
+  <si>
     <t>RE11</t>
   </si>
   <si>
+    <t>Opção para que o médico realize uma chamada sem exibição de número para o paciente e explique melhor a situação ou recomendação ou pergunte detalhes que o paciente não forneceu por escrito ou por arquivo de audio.</t>
+  </si>
+  <si>
+    <t>UC11</t>
+  </si>
+  <si>
+    <t>Efetuar Chamada</t>
+  </si>
+  <si>
+    <t>Médico</t>
+  </si>
+  <si>
     <t>RE12</t>
   </si>
   <si>
-    <t>RE13</t>
-  </si>
-  <si>
-    <t>RE14</t>
-  </si>
-  <si>
-    <t>RE15</t>
-  </si>
-  <si>
-    <t>RE16</t>
-  </si>
-  <si>
-    <t>RE17</t>
-  </si>
-  <si>
-    <t>RE18</t>
-  </si>
-  <si>
-    <t>RE19</t>
-  </si>
-  <si>
-    <t>RE20</t>
-  </si>
-  <si>
-    <t>RE21</t>
+    <t>Opção que inicia um Chat com o paciente, caso este ainda esteja online em caso de consulta pessoal ou de emergência.</t>
+  </si>
+  <si>
+    <t>UC12</t>
+  </si>
+  <si>
+    <t>Abrir Chat</t>
+  </si>
+  <si>
+    <t>Médico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
@@ -163,9 +229,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -173,11 +238,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -198,10 +271,13 @@
       <patternFill patternType="lightGray"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B083"/>
+        <bgColor rgb="FFF4B083"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -215,26 +291,37 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
-      <alignment/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
+    <xf applyBorder="1" fillId="2" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="3" applyFill="1"/>
+    <xf applyBorder="1" fillId="2" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="4"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
-      <alignment wrapText="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="8">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -265,17 +352,17 @@
   <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" customWidth="1" max="1" width="8.71"/>
-    <col min="2" customWidth="1" max="2" width="66.29"/>
+    <col min="2" customWidth="1" max="2" width="93.71"/>
     <col min="3" customWidth="1" max="3" width="8.71"/>
     <col min="4" customWidth="1" max="4" width="36.14"/>
     <col min="5" customWidth="1" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="23.25">
-      <c t="s" s="1" r="B1">
+      <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
-      <c s="2" r="D1"/>
+      <c s="2" r="F1"/>
     </row>
     <row customHeight="1" r="2" ht="15.0">
       <c t="s" s="3" r="A2">
@@ -290,197 +377,303 @@
       <c t="s" s="3" r="D2">
         <v>4</v>
       </c>
-    </row>
-    <row customHeight="1" r="3" ht="15.0">
-      <c t="s" s="2" r="A3">
+      <c t="s" s="3" r="E2">
         <v>5</v>
       </c>
-      <c t="s" s="2" r="B3">
+      <c s="2" r="F2"/>
+    </row>
+    <row customHeight="1" r="3" ht="14.25">
+      <c t="s" s="5" r="A3">
         <v>6</v>
       </c>
-      <c t="s" s="4" r="C3">
+      <c t="s" s="5" r="B3">
         <v>7</v>
       </c>
+      <c t="s" s="6" r="C3">
+        <v>8</v>
+      </c>
       <c t="s" s="5" r="D3">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" r="4" ht="15.0">
-      <c t="s" s="2" r="A4">
         <v>9</v>
       </c>
-      <c t="s" s="2" r="B4">
+      <c t="s" s="5" r="E3">
         <v>10</v>
       </c>
-      <c t="s" s="4" r="C4">
+      <c s="2" r="F3"/>
+    </row>
+    <row customHeight="1" r="4" ht="14.25">
+      <c t="s" s="5" r="A4">
         <v>11</v>
       </c>
+      <c t="s" s="5" r="B4">
+        <v>12</v>
+      </c>
+      <c t="s" s="6" r="C4">
+        <v>13</v>
+      </c>
       <c t="s" s="5" r="D4">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" r="5" ht="15.0">
-      <c t="s" s="2" r="A5">
-        <v>13</v>
-      </c>
-      <c t="s" s="2" r="B5">
         <v>14</v>
       </c>
-      <c t="s" s="4" r="C5">
+      <c t="s" s="5" r="E4">
         <v>15</v>
       </c>
+      <c s="2" r="F4"/>
+    </row>
+    <row customHeight="1" r="5" ht="14.25">
+      <c t="s" s="5" r="A5">
+        <v>16</v>
+      </c>
+      <c t="s" s="5" r="B5">
+        <v>17</v>
+      </c>
+      <c t="s" s="6" r="C5">
+        <v>18</v>
+      </c>
       <c t="s" s="5" r="D5">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" r="6" ht="61.5">
-      <c t="s" s="2" r="A6">
-        <v>17</v>
-      </c>
-      <c t="s" s="2" r="B6">
-        <v>18</v>
-      </c>
-      <c t="s" s="4" r="C6">
         <v>19</v>
       </c>
+      <c t="s" s="5" r="E5">
+        <v>20</v>
+      </c>
+      <c s="2" r="F5"/>
+    </row>
+    <row customHeight="1" r="6" ht="14.25">
+      <c t="s" s="5" r="A6">
+        <v>21</v>
+      </c>
+      <c t="s" s="5" r="B6">
+        <v>22</v>
+      </c>
+      <c t="s" s="6" r="C6">
+        <v>23</v>
+      </c>
       <c t="s" s="5" r="D6">
-        <v>20</v>
-      </c>
-    </row>
-    <row customHeight="1" r="7" ht="45.0">
-      <c t="s" s="2" r="A7">
-        <v>21</v>
-      </c>
-      <c t="s" s="6" r="B7">
-        <v>22</v>
-      </c>
-      <c t="s" s="4" r="C7">
-        <v>23</v>
-      </c>
-      <c t="s" s="5" r="D7">
         <v>24</v>
       </c>
-    </row>
-    <row customHeight="1" r="8" ht="15.0">
-      <c t="s" s="2" r="A8">
+      <c t="s" s="5" r="E6">
         <v>25</v>
       </c>
+      <c s="2" r="F6"/>
+    </row>
+    <row customHeight="1" r="7" ht="72.0">
+      <c t="s" s="5" r="A7">
+        <v>26</v>
+      </c>
+      <c t="s" s="7" r="B7">
+        <v>27</v>
+      </c>
+      <c t="s" s="6" r="C7">
+        <v>28</v>
+      </c>
+      <c t="s" s="8" r="D7">
+        <v>29</v>
+      </c>
+      <c t="s" s="5" r="E7">
+        <v>30</v>
+      </c>
+      <c s="2" r="F7"/>
+    </row>
+    <row customHeight="1" r="8" ht="72.0">
+      <c t="s" s="5" r="A8">
+        <v>31</v>
+      </c>
       <c t="s" s="7" r="B8">
-        <v>26</v>
-      </c>
-      <c t="s" s="4" r="C8">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c t="s" s="6" r="C8">
+        <v>33</v>
       </c>
       <c t="s" s="5" r="D8">
-        <v>28</v>
-      </c>
-    </row>
-    <row customHeight="1" r="9" ht="15.0">
-      <c t="s" s="2" r="A9">
-        <v>29</v>
-      </c>
-      <c s="2" r="B9"/>
-      <c s="2" r="D9"/>
-    </row>
-    <row customHeight="1" r="10" ht="15.0">
-      <c t="s" s="2" r="A10">
-        <v>30</v>
-      </c>
-      <c s="2" r="B10"/>
-      <c s="2" r="D10"/>
-    </row>
-    <row customHeight="1" r="11" ht="15.0">
-      <c t="s" s="2" r="A11">
-        <v>31</v>
-      </c>
-      <c s="2" r="B11"/>
-      <c s="2" r="D11"/>
-    </row>
-    <row customHeight="1" r="12" ht="15.0">
-      <c t="s" s="2" r="A12">
-        <v>32</v>
-      </c>
-      <c s="2" r="B12"/>
-      <c s="2" r="D12"/>
-    </row>
-    <row customHeight="1" r="13" ht="15.0">
-      <c t="s" s="2" r="A13">
-        <v>33</v>
-      </c>
-      <c s="2" r="B13"/>
-      <c s="2" r="D13"/>
+        <v>34</v>
+      </c>
+      <c t="s" s="5" r="E8">
+        <v>35</v>
+      </c>
+      <c s="2" r="F8"/>
+    </row>
+    <row customHeight="1" r="9" ht="14.25">
+      <c t="s" s="5" r="A9">
+        <v>36</v>
+      </c>
+      <c t="s" s="5" r="B9">
+        <v>37</v>
+      </c>
+      <c t="s" s="6" r="C9">
+        <v>38</v>
+      </c>
+      <c t="s" s="8" r="D9">
+        <v>39</v>
+      </c>
+      <c t="s" s="5" r="E9">
+        <v>40</v>
+      </c>
+      <c s="2" r="F9"/>
+    </row>
+    <row customHeight="1" r="10" ht="14.25">
+      <c t="s" s="5" r="A10">
+        <v>41</v>
+      </c>
+      <c t="s" s="5" r="B10">
+        <v>42</v>
+      </c>
+      <c t="s" s="6" r="C10">
+        <v>43</v>
+      </c>
+      <c t="s" s="8" r="D10">
+        <v>44</v>
+      </c>
+      <c t="s" s="5" r="E10">
+        <v>45</v>
+      </c>
+      <c s="2" r="F10"/>
+    </row>
+    <row customHeight="1" r="11" ht="14.25">
+      <c t="s" s="5" r="A11">
+        <v>46</v>
+      </c>
+      <c t="s" s="5" r="B11">
+        <v>47</v>
+      </c>
+      <c t="s" s="6" r="C11">
+        <v>48</v>
+      </c>
+      <c t="s" s="5" r="D11">
+        <v>49</v>
+      </c>
+      <c t="s" s="5" r="E11">
+        <v>50</v>
+      </c>
+      <c s="2" r="F11"/>
+    </row>
+    <row customHeight="1" r="12" ht="14.25">
+      <c t="s" s="5" r="A12">
+        <v>51</v>
+      </c>
+      <c t="s" s="5" r="B12">
+        <v>52</v>
+      </c>
+      <c t="s" s="6" r="C12">
+        <v>53</v>
+      </c>
+      <c t="s" s="5" r="D12">
+        <v>54</v>
+      </c>
+      <c t="s" s="5" r="E12">
+        <v>55</v>
+      </c>
+      <c s="2" r="F12"/>
+    </row>
+    <row customHeight="1" r="13" ht="14.25">
+      <c t="s" s="5" r="A13">
+        <v>56</v>
+      </c>
+      <c t="s" s="5" r="B13">
+        <v>57</v>
+      </c>
+      <c t="s" s="6" r="C13">
+        <v>58</v>
+      </c>
+      <c t="s" s="5" r="D13">
+        <v>59</v>
+      </c>
+      <c t="s" s="5" r="E13">
+        <v>60</v>
+      </c>
+      <c s="2" r="F13"/>
     </row>
     <row customHeight="1" r="14" ht="15.0">
-      <c t="s" s="2" r="A14">
-        <v>34</v>
-      </c>
-      <c s="2" r="B14"/>
-      <c s="2" r="D14"/>
+      <c t="s" s="5" r="A14">
+        <v>61</v>
+      </c>
+      <c t="s" s="5" r="B14">
+        <v>62</v>
+      </c>
+      <c t="s" s="6" r="C14">
+        <v>63</v>
+      </c>
+      <c t="s" s="5" r="D14">
+        <v>64</v>
+      </c>
+      <c t="s" s="5" r="E14">
+        <v>65</v>
+      </c>
+      <c s="2" r="F14"/>
     </row>
     <row customHeight="1" r="15" ht="15.0">
-      <c t="s" s="2" r="A15">
-        <v>35</v>
-      </c>
-      <c s="2" r="B15"/>
-      <c s="2" r="D15"/>
+      <c s="5" r="A15"/>
+      <c s="5" r="B15"/>
+      <c s="6" r="C15"/>
+      <c s="5" r="D15"/>
+      <c s="2" r="E15"/>
+      <c s="2" r="F15"/>
     </row>
     <row customHeight="1" r="16" ht="15.0">
-      <c t="s" s="2" r="A16">
-        <v>36</v>
-      </c>
-      <c s="2" r="B16"/>
-      <c s="2" r="D16"/>
+      <c s="5" r="A16"/>
+      <c s="5" r="B16"/>
+      <c s="2" r="C16"/>
+      <c s="5" r="D16"/>
+      <c s="2" r="E16"/>
+      <c s="2" r="F16"/>
     </row>
     <row customHeight="1" r="17" ht="15.0">
-      <c t="s" s="2" r="A17">
-        <v>37</v>
-      </c>
-      <c s="2" r="B17"/>
-      <c s="2" r="D17"/>
+      <c s="5" r="A17"/>
+      <c s="5" r="B17"/>
+      <c s="2" r="C17"/>
+      <c s="5" r="D17"/>
+      <c s="2" r="E17"/>
+      <c s="2" r="F17"/>
     </row>
     <row customHeight="1" r="18" ht="15.0">
-      <c t="s" s="2" r="A18">
-        <v>38</v>
-      </c>
-      <c s="2" r="B18"/>
-      <c s="2" r="D18"/>
+      <c s="5" r="A18"/>
+      <c s="5" r="B18"/>
+      <c s="2" r="C18"/>
+      <c s="5" r="D18"/>
+      <c s="2" r="E18"/>
+      <c s="2" r="F18"/>
     </row>
     <row customHeight="1" r="19" ht="15.0">
-      <c t="s" s="2" r="A19">
-        <v>39</v>
-      </c>
-      <c s="2" r="B19"/>
-      <c s="2" r="D19"/>
+      <c s="5" r="A19"/>
+      <c s="5" r="B19"/>
+      <c s="2" r="C19"/>
+      <c s="5" r="D19"/>
+      <c s="2" r="E19"/>
+      <c s="2" r="F19"/>
     </row>
     <row customHeight="1" r="20" ht="15.0">
-      <c t="s" s="2" r="A20">
-        <v>40</v>
-      </c>
-      <c s="2" r="B20"/>
-      <c s="2" r="D20"/>
+      <c s="5" r="A20"/>
+      <c s="5" r="B20"/>
+      <c s="2" r="C20"/>
+      <c s="5" r="D20"/>
+      <c s="2" r="E20"/>
+      <c s="2" r="F20"/>
     </row>
     <row customHeight="1" r="21" ht="15.0">
-      <c t="s" s="2" r="A21">
-        <v>41</v>
-      </c>
-      <c s="2" r="B21"/>
-      <c s="2" r="D21"/>
+      <c s="5" r="A21"/>
+      <c s="5" r="B21"/>
+      <c s="2" r="C21"/>
+      <c s="5" r="D21"/>
+      <c s="2" r="E21"/>
+      <c s="2" r="F21"/>
     </row>
     <row customHeight="1" r="22" ht="15.0">
-      <c t="s" s="2" r="A22">
-        <v>42</v>
-      </c>
-      <c s="2" r="B22"/>
-      <c s="2" r="D22"/>
+      <c s="5" r="A22"/>
+      <c s="5" r="B22"/>
+      <c s="2" r="C22"/>
+      <c s="5" r="D22"/>
+      <c s="2" r="E22"/>
+      <c s="2" r="F22"/>
     </row>
     <row customHeight="1" r="23" ht="15.0">
-      <c t="s" s="2" r="A23">
-        <v>43</v>
-      </c>
-      <c s="2" r="B23"/>
-      <c s="2" r="D23"/>
+      <c s="5" r="A23"/>
+      <c s="5" r="B23"/>
+      <c s="2" r="C23"/>
+      <c s="5" r="D23"/>
+      <c s="2" r="E23"/>
+      <c s="2" r="F23"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -495,26 +688,166 @@
     <col min="1" customWidth="1" max="6" width="8.71"/>
   </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="15.0"/>
-    <row customHeight="1" r="2" ht="15.0"/>
-    <row customHeight="1" r="3" ht="15.0"/>
-    <row customHeight="1" r="4" ht="15.0"/>
-    <row customHeight="1" r="5" ht="15.0"/>
-    <row customHeight="1" r="6" ht="15.0"/>
-    <row customHeight="1" r="7" ht="15.0"/>
-    <row customHeight="1" r="8" ht="15.0"/>
-    <row customHeight="1" r="9" ht="15.0"/>
-    <row customHeight="1" r="10" ht="15.0"/>
-    <row customHeight="1" r="11" ht="15.0"/>
-    <row customHeight="1" r="12" ht="15.0"/>
-    <row customHeight="1" r="13" ht="15.0"/>
-    <row customHeight="1" r="14" ht="15.0"/>
-    <row customHeight="1" r="15" ht="15.0"/>
-    <row customHeight="1" r="16" ht="15.0"/>
-    <row customHeight="1" r="17" ht="15.0"/>
-    <row customHeight="1" r="18" ht="15.0"/>
-    <row customHeight="1" r="19" ht="15.0"/>
-    <row customHeight="1" r="20" ht="15.0"/>
+    <row customHeight="1" r="1" ht="15.0">
+      <c s="2" r="A1"/>
+      <c s="2" r="B1"/>
+      <c s="2" r="C1"/>
+      <c s="2" r="D1"/>
+      <c s="2" r="E1"/>
+      <c s="2" r="F1"/>
+    </row>
+    <row customHeight="1" r="2" ht="15.0">
+      <c s="2" r="A2"/>
+      <c s="2" r="B2"/>
+      <c s="2" r="C2"/>
+      <c s="2" r="D2"/>
+      <c s="2" r="E2"/>
+      <c s="2" r="F2"/>
+    </row>
+    <row customHeight="1" r="3" ht="15.0">
+      <c s="2" r="A3"/>
+      <c s="2" r="B3"/>
+      <c s="2" r="C3"/>
+      <c s="2" r="D3"/>
+      <c s="2" r="E3"/>
+      <c s="2" r="F3"/>
+    </row>
+    <row customHeight="1" r="4" ht="15.0">
+      <c s="2" r="A4"/>
+      <c s="2" r="B4"/>
+      <c s="2" r="C4"/>
+      <c s="2" r="D4"/>
+      <c s="2" r="E4"/>
+      <c s="2" r="F4"/>
+    </row>
+    <row customHeight="1" r="5" ht="15.0">
+      <c s="2" r="A5"/>
+      <c s="2" r="B5"/>
+      <c s="2" r="C5"/>
+      <c s="2" r="D5"/>
+      <c s="2" r="E5"/>
+      <c s="2" r="F5"/>
+    </row>
+    <row customHeight="1" r="6" ht="15.0">
+      <c s="2" r="A6"/>
+      <c s="2" r="B6"/>
+      <c s="2" r="C6"/>
+      <c s="2" r="D6"/>
+      <c s="2" r="E6"/>
+      <c s="2" r="F6"/>
+    </row>
+    <row customHeight="1" r="7" ht="15.0">
+      <c s="2" r="A7"/>
+      <c s="2" r="B7"/>
+      <c s="2" r="C7"/>
+      <c s="2" r="D7"/>
+      <c s="2" r="E7"/>
+      <c s="2" r="F7"/>
+    </row>
+    <row customHeight="1" r="8" ht="15.0">
+      <c s="2" r="A8"/>
+      <c s="2" r="B8"/>
+      <c s="2" r="C8"/>
+      <c s="2" r="D8"/>
+      <c s="2" r="E8"/>
+      <c s="2" r="F8"/>
+    </row>
+    <row customHeight="1" r="9" ht="15.0">
+      <c s="2" r="A9"/>
+      <c s="2" r="B9"/>
+      <c s="2" r="C9"/>
+      <c s="2" r="D9"/>
+      <c s="2" r="E9"/>
+      <c s="2" r="F9"/>
+    </row>
+    <row customHeight="1" r="10" ht="15.0">
+      <c s="2" r="A10"/>
+      <c s="2" r="B10"/>
+      <c s="2" r="C10"/>
+      <c s="2" r="D10"/>
+      <c s="2" r="E10"/>
+      <c s="2" r="F10"/>
+    </row>
+    <row customHeight="1" r="11" ht="15.0">
+      <c s="2" r="A11"/>
+      <c s="2" r="B11"/>
+      <c s="2" r="C11"/>
+      <c s="2" r="D11"/>
+      <c s="2" r="E11"/>
+      <c s="2" r="F11"/>
+    </row>
+    <row customHeight="1" r="12" ht="15.0">
+      <c s="2" r="A12"/>
+      <c s="2" r="B12"/>
+      <c s="2" r="C12"/>
+      <c s="2" r="D12"/>
+      <c s="2" r="E12"/>
+      <c s="2" r="F12"/>
+    </row>
+    <row customHeight="1" r="13" ht="15.0">
+      <c s="2" r="A13"/>
+      <c s="2" r="B13"/>
+      <c s="2" r="C13"/>
+      <c s="2" r="D13"/>
+      <c s="2" r="E13"/>
+      <c s="2" r="F13"/>
+    </row>
+    <row customHeight="1" r="14" ht="15.0">
+      <c s="2" r="A14"/>
+      <c s="2" r="B14"/>
+      <c s="2" r="C14"/>
+      <c s="2" r="D14"/>
+      <c s="2" r="E14"/>
+      <c s="2" r="F14"/>
+    </row>
+    <row customHeight="1" r="15" ht="15.0">
+      <c s="2" r="A15"/>
+      <c s="2" r="B15"/>
+      <c s="2" r="C15"/>
+      <c s="2" r="D15"/>
+      <c s="2" r="E15"/>
+      <c s="2" r="F15"/>
+    </row>
+    <row customHeight="1" r="16" ht="15.0">
+      <c s="2" r="A16"/>
+      <c s="2" r="B16"/>
+      <c s="2" r="C16"/>
+      <c s="2" r="D16"/>
+      <c s="2" r="E16"/>
+      <c s="2" r="F16"/>
+    </row>
+    <row customHeight="1" r="17" ht="15.0">
+      <c s="2" r="A17"/>
+      <c s="2" r="B17"/>
+      <c s="2" r="C17"/>
+      <c s="2" r="D17"/>
+      <c s="2" r="E17"/>
+      <c s="2" r="F17"/>
+    </row>
+    <row customHeight="1" r="18" ht="15.0">
+      <c s="2" r="A18"/>
+      <c s="2" r="B18"/>
+      <c s="2" r="C18"/>
+      <c s="2" r="D18"/>
+      <c s="2" r="E18"/>
+      <c s="2" r="F18"/>
+    </row>
+    <row customHeight="1" r="19" ht="15.0">
+      <c s="2" r="A19"/>
+      <c s="2" r="B19"/>
+      <c s="2" r="C19"/>
+      <c s="2" r="D19"/>
+      <c s="2" r="E19"/>
+      <c s="2" r="F19"/>
+    </row>
+    <row customHeight="1" r="20" ht="15.0">
+      <c s="2" r="A20"/>
+      <c s="2" r="B20"/>
+      <c s="2" r="C20"/>
+      <c s="2" r="D20"/>
+      <c s="2" r="E20"/>
+      <c s="2" r="F20"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -530,26 +863,166 @@
     <col min="1" customWidth="1" max="6" width="8.71"/>
   </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="15.0"/>
-    <row customHeight="1" r="2" ht="15.0"/>
-    <row customHeight="1" r="3" ht="15.0"/>
-    <row customHeight="1" r="4" ht="15.0"/>
-    <row customHeight="1" r="5" ht="15.0"/>
-    <row customHeight="1" r="6" ht="15.0"/>
-    <row customHeight="1" r="7" ht="15.0"/>
-    <row customHeight="1" r="8" ht="15.0"/>
-    <row customHeight="1" r="9" ht="15.0"/>
-    <row customHeight="1" r="10" ht="15.0"/>
-    <row customHeight="1" r="11" ht="15.0"/>
-    <row customHeight="1" r="12" ht="15.0"/>
-    <row customHeight="1" r="13" ht="15.0"/>
-    <row customHeight="1" r="14" ht="15.0"/>
-    <row customHeight="1" r="15" ht="15.0"/>
-    <row customHeight="1" r="16" ht="15.0"/>
-    <row customHeight="1" r="17" ht="15.0"/>
-    <row customHeight="1" r="18" ht="15.0"/>
-    <row customHeight="1" r="19" ht="15.0"/>
-    <row customHeight="1" r="20" ht="15.0"/>
+    <row customHeight="1" r="1" ht="15.0">
+      <c s="2" r="A1"/>
+      <c s="2" r="B1"/>
+      <c s="2" r="C1"/>
+      <c s="2" r="D1"/>
+      <c s="2" r="E1"/>
+      <c s="2" r="F1"/>
+    </row>
+    <row customHeight="1" r="2" ht="15.0">
+      <c s="2" r="A2"/>
+      <c s="2" r="B2"/>
+      <c s="2" r="C2"/>
+      <c s="2" r="D2"/>
+      <c s="2" r="E2"/>
+      <c s="2" r="F2"/>
+    </row>
+    <row customHeight="1" r="3" ht="15.0">
+      <c s="2" r="A3"/>
+      <c s="2" r="B3"/>
+      <c s="2" r="C3"/>
+      <c s="2" r="D3"/>
+      <c s="2" r="E3"/>
+      <c s="2" r="F3"/>
+    </row>
+    <row customHeight="1" r="4" ht="15.0">
+      <c s="2" r="A4"/>
+      <c s="2" r="B4"/>
+      <c s="2" r="C4"/>
+      <c s="2" r="D4"/>
+      <c s="2" r="E4"/>
+      <c s="2" r="F4"/>
+    </row>
+    <row customHeight="1" r="5" ht="15.0">
+      <c s="2" r="A5"/>
+      <c s="2" r="B5"/>
+      <c s="2" r="C5"/>
+      <c s="2" r="D5"/>
+      <c s="2" r="E5"/>
+      <c s="2" r="F5"/>
+    </row>
+    <row customHeight="1" r="6" ht="15.0">
+      <c s="2" r="A6"/>
+      <c s="2" r="B6"/>
+      <c s="2" r="C6"/>
+      <c s="2" r="D6"/>
+      <c s="2" r="E6"/>
+      <c s="2" r="F6"/>
+    </row>
+    <row customHeight="1" r="7" ht="15.0">
+      <c s="2" r="A7"/>
+      <c s="2" r="B7"/>
+      <c s="2" r="C7"/>
+      <c s="2" r="D7"/>
+      <c s="2" r="E7"/>
+      <c s="2" r="F7"/>
+    </row>
+    <row customHeight="1" r="8" ht="15.0">
+      <c s="2" r="A8"/>
+      <c s="2" r="B8"/>
+      <c s="2" r="C8"/>
+      <c s="2" r="D8"/>
+      <c s="2" r="E8"/>
+      <c s="2" r="F8"/>
+    </row>
+    <row customHeight="1" r="9" ht="15.0">
+      <c s="2" r="A9"/>
+      <c s="2" r="B9"/>
+      <c s="2" r="C9"/>
+      <c s="2" r="D9"/>
+      <c s="2" r="E9"/>
+      <c s="2" r="F9"/>
+    </row>
+    <row customHeight="1" r="10" ht="15.0">
+      <c s="2" r="A10"/>
+      <c s="2" r="B10"/>
+      <c s="2" r="C10"/>
+      <c s="2" r="D10"/>
+      <c s="2" r="E10"/>
+      <c s="2" r="F10"/>
+    </row>
+    <row customHeight="1" r="11" ht="15.0">
+      <c s="2" r="A11"/>
+      <c s="2" r="B11"/>
+      <c s="2" r="C11"/>
+      <c s="2" r="D11"/>
+      <c s="2" r="E11"/>
+      <c s="2" r="F11"/>
+    </row>
+    <row customHeight="1" r="12" ht="15.0">
+      <c s="2" r="A12"/>
+      <c s="2" r="B12"/>
+      <c s="2" r="C12"/>
+      <c s="2" r="D12"/>
+      <c s="2" r="E12"/>
+      <c s="2" r="F12"/>
+    </row>
+    <row customHeight="1" r="13" ht="15.0">
+      <c s="2" r="A13"/>
+      <c s="2" r="B13"/>
+      <c s="2" r="C13"/>
+      <c s="2" r="D13"/>
+      <c s="2" r="E13"/>
+      <c s="2" r="F13"/>
+    </row>
+    <row customHeight="1" r="14" ht="15.0">
+      <c s="2" r="A14"/>
+      <c s="2" r="B14"/>
+      <c s="2" r="C14"/>
+      <c s="2" r="D14"/>
+      <c s="2" r="E14"/>
+      <c s="2" r="F14"/>
+    </row>
+    <row customHeight="1" r="15" ht="15.0">
+      <c s="2" r="A15"/>
+      <c s="2" r="B15"/>
+      <c s="2" r="C15"/>
+      <c s="2" r="D15"/>
+      <c s="2" r="E15"/>
+      <c s="2" r="F15"/>
+    </row>
+    <row customHeight="1" r="16" ht="15.0">
+      <c s="2" r="A16"/>
+      <c s="2" r="B16"/>
+      <c s="2" r="C16"/>
+      <c s="2" r="D16"/>
+      <c s="2" r="E16"/>
+      <c s="2" r="F16"/>
+    </row>
+    <row customHeight="1" r="17" ht="15.0">
+      <c s="2" r="A17"/>
+      <c s="2" r="B17"/>
+      <c s="2" r="C17"/>
+      <c s="2" r="D17"/>
+      <c s="2" r="E17"/>
+      <c s="2" r="F17"/>
+    </row>
+    <row customHeight="1" r="18" ht="15.0">
+      <c s="2" r="A18"/>
+      <c s="2" r="B18"/>
+      <c s="2" r="C18"/>
+      <c s="2" r="D18"/>
+      <c s="2" r="E18"/>
+      <c s="2" r="F18"/>
+    </row>
+    <row customHeight="1" r="19" ht="15.0">
+      <c s="2" r="A19"/>
+      <c s="2" r="B19"/>
+      <c s="2" r="C19"/>
+      <c s="2" r="D19"/>
+      <c s="2" r="E19"/>
+      <c s="2" r="F19"/>
+    </row>
+    <row customHeight="1" r="20" ht="15.0">
+      <c s="2" r="A20"/>
+      <c s="2" r="B20"/>
+      <c s="2" r="C20"/>
+      <c s="2" r="D20"/>
+      <c s="2" r="E20"/>
+      <c s="2" r="F20"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Requisitos e Casos de Uso.xlsx.xlsx
+++ b/Requisitos e Casos de Uso.xlsx.xlsx
@@ -352,9 +352,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" customWidth="1" max="1" width="8.71"/>
-    <col min="2" customWidth="1" max="2" width="93.71"/>
+    <col min="2" customWidth="1" max="2" width="71.0"/>
     <col min="3" customWidth="1" max="3" width="8.71"/>
-    <col min="4" customWidth="1" max="4" width="36.14"/>
+    <col min="4" customWidth="1" max="4" width="31.57"/>
     <col min="5" customWidth="1" max="6" width="8.71"/>
   </cols>
   <sheetData>
@@ -454,7 +454,7 @@
       </c>
       <c s="2" r="F6"/>
     </row>
-    <row customHeight="1" r="7" ht="72.0">
+    <row customHeight="1" r="7" ht="41.25">
       <c t="s" s="5" r="A7">
         <v>26</v>
       </c>
@@ -472,7 +472,7 @@
       </c>
       <c s="2" r="F7"/>
     </row>
-    <row customHeight="1" r="8" ht="72.0">
+    <row customHeight="1" r="8" ht="43.5">
       <c t="s" s="5" r="A8">
         <v>31</v>
       </c>
@@ -490,11 +490,11 @@
       </c>
       <c s="2" r="F8"/>
     </row>
-    <row customHeight="1" r="9" ht="14.25">
+    <row customHeight="1" r="9" ht="27.0">
       <c t="s" s="5" r="A9">
         <v>36</v>
       </c>
-      <c t="s" s="5" r="B9">
+      <c t="s" s="7" r="B9">
         <v>37</v>
       </c>
       <c t="s" s="6" r="C9">
@@ -530,7 +530,7 @@
       <c t="s" s="5" r="A11">
         <v>46</v>
       </c>
-      <c t="s" s="5" r="B11">
+      <c t="s" s="7" r="B11">
         <v>47</v>
       </c>
       <c t="s" s="6" r="C11">
@@ -548,7 +548,7 @@
       <c t="s" s="5" r="A12">
         <v>51</v>
       </c>
-      <c t="s" s="5" r="B12">
+      <c t="s" s="7" r="B12">
         <v>52</v>
       </c>
       <c t="s" s="6" r="C12">
@@ -566,7 +566,7 @@
       <c t="s" s="5" r="A13">
         <v>56</v>
       </c>
-      <c t="s" s="5" r="B13">
+      <c t="s" s="7" r="B13">
         <v>57</v>
       </c>
       <c t="s" s="6" r="C13">
@@ -584,7 +584,7 @@
       <c t="s" s="5" r="A14">
         <v>61</v>
       </c>
-      <c t="s" s="5" r="B14">
+      <c t="s" s="7" r="B14">
         <v>62</v>
       </c>
       <c t="s" s="6" r="C14">
